--- a/0 Sim_InfBusGfl/Test_SingleGflInfBus.xlsx
+++ b/0 Sim_InfBusGfl/Test_SingleGflInfBus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\0 Sim_InfBusGfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87A10FC-D56C-4EA9-A60A-54B443051607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEA023-D023-44BC-A285-054440923DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>2.5</v>
@@ -1768,6 +1768,7 @@
         <v>0.05</v>
       </c>
       <c r="F59">
+        <f>E59/5</f>
         <v>0.01</v>
       </c>
       <c r="G59">
@@ -1777,7 +1778,7 @@
         <v>20</v>
       </c>
       <c r="I59">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="J59" s="2"/>
     </row>
@@ -1886,7 +1887,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1966,8 +1967,8 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <f>D10/10</f>
-        <v>0.01</v>
+        <f>D10/5</f>
+        <v>0.02</v>
       </c>
       <c r="D10">
         <v>0.1</v>
@@ -2017,7 +2018,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2044,7 +2045,7 @@
       </c>
       <c r="B3" s="1">
         <f>B4*1000/2</f>
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -2052,7 +2053,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -2083,7 +2084,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2205,7 +2206,7 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>

--- a/0 Sim_InfBusGfl/Test_SingleGflInfBus.xlsx
+++ b/0 Sim_InfBusGfl/Test_SingleGflInfBus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\0 Sim_InfBusGfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEA023-D023-44BC-A285-054440923DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F4C3D-1574-4B9F-B64A-CCD5A8D95E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>0.5</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1772,13 +1772,13 @@
         <v>0.01</v>
       </c>
       <c r="G59">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H59">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I59">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J59" s="2"/>
     </row>
@@ -1886,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
